--- a/output_dataset/data_karyawan_prediksi.xlsx
+++ b/output_dataset/data_karyawan_prediksi.xlsx
@@ -485,19 +485,19 @@
         <v>1125</v>
       </c>
       <c r="B2" t="n">
-        <v>3004</v>
+        <v>3123</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>1450</v>
       </c>
       <c r="B4" t="n">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -572,10 +572,10 @@
         <v>1494</v>
       </c>
       <c r="B5" t="n">
-        <v>3841</v>
+        <v>3899</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +717,16 @@
         <v>1405</v>
       </c>
       <c r="B10" t="n">
-        <v>2700</v>
+        <v>2783</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -735,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.39</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="13">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="15">
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="16">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="17">
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="18">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="19">
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
@@ -1007,19 +1007,19 @@
         <v>1362</v>
       </c>
       <c r="B20" t="n">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="C20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="21">
@@ -1036,10 +1036,10 @@
         <v>1138</v>
       </c>
       <c r="B21" t="n">
-        <v>9295</v>
+        <v>8951</v>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="23">
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="24">
@@ -1123,28 +1123,28 @@
         <v>1530</v>
       </c>
       <c r="B24" t="n">
-        <v>6170</v>
+        <v>6435</v>
       </c>
       <c r="C24" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="26">
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="27">
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="29">
@@ -1268,7 +1268,7 @@
         <v>1422</v>
       </c>
       <c r="B29" t="n">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C29" t="n">
         <v>26</v>
@@ -1280,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.57</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="30">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31">
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="32">
@@ -1355,19 +1355,19 @@
         <v>1733</v>
       </c>
       <c r="B32" t="n">
-        <v>1293</v>
+        <v>1564</v>
       </c>
       <c r="C32" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="33">
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
@@ -1413,10 +1413,10 @@
         <v>1745</v>
       </c>
       <c r="B34" t="n">
-        <v>6303</v>
+        <v>6465</v>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" t="n">
         <v>2</v>
@@ -1425,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="35">
@@ -1442,10 +1442,10 @@
         <v>1173</v>
       </c>
       <c r="B35" t="n">
-        <v>1319</v>
+        <v>1201</v>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="36">
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="37">
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="38">
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="39">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="40">
@@ -1587,19 +1587,19 @@
         <v>1588</v>
       </c>
       <c r="B40" t="n">
-        <v>4826</v>
+        <v>4420</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1634,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="42">
@@ -1645,16 +1645,16 @@
         <v>1193</v>
       </c>
       <c r="B42" t="n">
-        <v>8243</v>
+        <v>8608</v>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
         <v>10</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="44">
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="46">
@@ -1790,28 +1790,28 @@
         <v>1190</v>
       </c>
       <c r="B47" t="n">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="C47" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="48">
@@ -1819,19 +1819,19 @@
         <v>1539</v>
       </c>
       <c r="B48" t="n">
-        <v>2353</v>
+        <v>2373</v>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="49">
@@ -1848,7 +1848,7 @@
         <v>1101</v>
       </c>
       <c r="B49" t="n">
-        <v>4329</v>
+        <v>4455</v>
       </c>
       <c r="C49" t="n">
         <v>27</v>
@@ -1857,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="50">
@@ -1877,28 +1877,28 @@
         <v>1365</v>
       </c>
       <c r="B50" t="n">
-        <v>3018</v>
+        <v>3119</v>
       </c>
       <c r="C50" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.67</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="51">
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="52">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="53">
@@ -1964,19 +1964,19 @@
         <v>1376</v>
       </c>
       <c r="B53" t="n">
-        <v>9580</v>
+        <v>8749</v>
       </c>
       <c r="C53" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="54">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="55">
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="56">
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57">
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="58">
@@ -2109,19 +2109,19 @@
         <v>1706</v>
       </c>
       <c r="B58" t="n">
-        <v>3687</v>
+        <v>3716</v>
       </c>
       <c r="C58" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="59">
@@ -2138,19 +2138,19 @@
         <v>1208</v>
       </c>
       <c r="B59" t="n">
-        <v>7423</v>
+        <v>7507</v>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
         <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="60">
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="61">
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="62">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="63">
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="66">
@@ -2341,16 +2341,16 @@
         <v>1221</v>
       </c>
       <c r="B66" t="n">
-        <v>10438</v>
+        <v>10497</v>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="67">
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="68">
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="69">
@@ -2428,19 +2428,19 @@
         <v>1263</v>
       </c>
       <c r="B69" t="n">
-        <v>1930</v>
+        <v>1871</v>
       </c>
       <c r="C69" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="70">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="71">
@@ -2504,10 +2504,10 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="72">
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="73">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="74">
@@ -2573,28 +2573,28 @@
         <v>1454</v>
       </c>
       <c r="B74" t="n">
-        <v>3642</v>
+        <v>3432</v>
       </c>
       <c r="C74" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
         <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="75">
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="76">
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="77">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="78">
@@ -2710,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="79">
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="81">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="82">
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="83">
@@ -2834,19 +2834,19 @@
         <v>1456</v>
       </c>
       <c r="B83" t="n">
-        <v>6681</v>
+        <v>6569</v>
       </c>
       <c r="C83" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2855,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="84">
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="85">
@@ -2910,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86">
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="87">
@@ -2950,19 +2950,19 @@
         <v>1633</v>
       </c>
       <c r="B87" t="n">
-        <v>6348</v>
+        <v>6425</v>
       </c>
       <c r="C87" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="88">
@@ -3000,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="89">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="90">
@@ -3037,20 +3037,20 @@
         <v>1377</v>
       </c>
       <c r="B90" t="n">
-        <v>5873</v>
+        <v>5749</v>
       </c>
       <c r="C90" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" t="n">
         <v>7</v>
       </c>
-      <c r="F90" t="n">
-        <v>20</v>
-      </c>
       <c r="G90" t="n">
         <v>1</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="91">
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="92">
@@ -3095,19 +3095,19 @@
         <v>1299</v>
       </c>
       <c r="B92" t="n">
-        <v>5970</v>
+        <v>5885</v>
       </c>
       <c r="C92" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93">
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="94">
@@ -3153,19 +3153,19 @@
         <v>1746</v>
       </c>
       <c r="B94" t="n">
-        <v>3468</v>
+        <v>3347</v>
       </c>
       <c r="C94" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="95">
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="96">
@@ -3211,19 +3211,19 @@
         <v>1466</v>
       </c>
       <c r="B96" t="n">
-        <v>2494</v>
+        <v>2401</v>
       </c>
       <c r="C96" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" t="n">
         <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="97">
@@ -3240,10 +3240,10 @@
         <v>1252</v>
       </c>
       <c r="B97" t="n">
-        <v>6306</v>
+        <v>6463</v>
       </c>
       <c r="C97" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D97" t="n">
         <v>2</v>
@@ -3252,7 +3252,7 @@
         <v>8</v>
       </c>
       <c r="F97" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="98">
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="99">
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="100">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="101">
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="102">
@@ -3385,16 +3385,16 @@
         <v>1562</v>
       </c>
       <c r="B102" t="n">
-        <v>2931</v>
+        <v>2898</v>
       </c>
       <c r="C102" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
         <v>6</v>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="105">
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0.79</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="106">
@@ -3519,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="107">
@@ -3530,7 +3530,7 @@
         <v>1747</v>
       </c>
       <c r="B107" t="n">
-        <v>4318</v>
+        <v>4279</v>
       </c>
       <c r="C107" t="n">
         <v>43</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="108">
@@ -3559,19 +3559,19 @@
         <v>1090</v>
       </c>
       <c r="B108" t="n">
-        <v>1815</v>
+        <v>1765</v>
       </c>
       <c r="C108" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D108" t="n">
         <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="109">
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="110">
@@ -3617,19 +3617,19 @@
         <v>1319</v>
       </c>
       <c r="B110" t="n">
-        <v>2427</v>
+        <v>2415</v>
       </c>
       <c r="C110" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -3638,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="111">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="112">
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="113">
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="114">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="115">
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="116">
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="117">
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="118">
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="119">
@@ -3878,19 +3878,19 @@
         <v>1340</v>
       </c>
       <c r="B119" t="n">
-        <v>2931</v>
+        <v>2923</v>
       </c>
       <c r="C119" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F119" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3899,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="120">
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="121">
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="122">
@@ -3965,16 +3965,16 @@
         <v>1442</v>
       </c>
       <c r="B122" t="n">
-        <v>2743</v>
+        <v>2780</v>
       </c>
       <c r="C122" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F122" t="n">
         <v>2</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="124">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="125">
@@ -4070,10 +4070,10 @@
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0.39</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="126">
@@ -4081,19 +4081,19 @@
         <v>1356</v>
       </c>
       <c r="B126" t="n">
-        <v>1390</v>
+        <v>1500</v>
       </c>
       <c r="C126" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4139,19 +4139,19 @@
         <v>1565</v>
       </c>
       <c r="B128" t="n">
-        <v>2093</v>
+        <v>2032</v>
       </c>
       <c r="C128" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="129">
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0.21</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="130">
@@ -4197,28 +4197,28 @@
         <v>1620</v>
       </c>
       <c r="B130" t="n">
-        <v>2731</v>
+        <v>2691</v>
       </c>
       <c r="C130" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F130" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="131">
@@ -4226,19 +4226,19 @@
         <v>1094</v>
       </c>
       <c r="B131" t="n">
-        <v>3980</v>
+        <v>3901</v>
       </c>
       <c r="C131" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4247,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="132">
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="133">
@@ -4305,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="134">
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="135">
@@ -4363,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="136">
@@ -4371,20 +4371,20 @@
         <v>1723</v>
       </c>
       <c r="B136" t="n">
-        <v>8681</v>
+        <v>7770</v>
       </c>
       <c r="C136" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D136" t="n">
         <v>2</v>
       </c>
       <c r="E136" t="n">
+        <v>9</v>
+      </c>
+      <c r="F136" t="n">
         <v>10</v>
       </c>
-      <c r="F136" t="n">
-        <v>21</v>
-      </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="137">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="138">
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="139">
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="140">
@@ -4487,16 +4487,16 @@
         <v>1179</v>
       </c>
       <c r="B140" t="n">
-        <v>2629</v>
+        <v>2622</v>
       </c>
       <c r="C140" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
         <v>9</v>
@@ -4508,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="143">
@@ -4574,19 +4574,19 @@
         <v>1556</v>
       </c>
       <c r="B143" t="n">
-        <v>5182</v>
+        <v>5326</v>
       </c>
       <c r="C143" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="144">
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="145">
@@ -4632,10 +4632,10 @@
         <v>1690</v>
       </c>
       <c r="B145" t="n">
-        <v>2739</v>
+        <v>2827</v>
       </c>
       <c r="C145" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D145" t="n">
         <v>2</v>
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="146">
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="147">
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="148">
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="149">
@@ -4748,19 +4748,19 @@
         <v>1255</v>
       </c>
       <c r="B149" t="n">
-        <v>4514</v>
+        <v>4359</v>
       </c>
       <c r="C149" t="n">
         <v>33</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0.74</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150">
@@ -4798,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="151">
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="152">
@@ -4835,10 +4835,10 @@
         <v>1120</v>
       </c>
       <c r="B152" t="n">
-        <v>2709</v>
+        <v>2705</v>
       </c>
       <c r="C152" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -4847,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="F152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -4856,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="153">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="154">
@@ -4893,19 +4893,19 @@
         <v>1468</v>
       </c>
       <c r="B154" t="n">
-        <v>8046</v>
+        <v>8379</v>
       </c>
       <c r="C154" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F154" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="155">
@@ -4922,16 +4922,16 @@
         <v>1308</v>
       </c>
       <c r="B155" t="n">
-        <v>6394</v>
+        <v>6507</v>
       </c>
       <c r="C155" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F155" t="n">
         <v>25</v>
@@ -4940,10 +4940,10 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>0.37</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="156">
@@ -4951,19 +4951,19 @@
         <v>1209</v>
       </c>
       <c r="B156" t="n">
-        <v>2805</v>
+        <v>2726</v>
       </c>
       <c r="C156" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156" t="n">
         <v>3</v>
       </c>
       <c r="F156" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="157">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="158">
@@ -5030,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="159">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="161">
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="162">
@@ -5125,19 +5125,19 @@
         <v>1335</v>
       </c>
       <c r="B162" t="n">
-        <v>7818</v>
+        <v>8207</v>
       </c>
       <c r="C162" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F162" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>0.82</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="163">
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="164">
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165">
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="166">
@@ -5241,28 +5241,28 @@
         <v>1359</v>
       </c>
       <c r="B166" t="n">
-        <v>10329</v>
+        <v>10268</v>
       </c>
       <c r="C166" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E166" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F166" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>0.35</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="167">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="168">
@@ -5328,19 +5328,19 @@
         <v>1088</v>
       </c>
       <c r="B169" t="n">
-        <v>4622</v>
+        <v>4566</v>
       </c>
       <c r="C169" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
       </c>
       <c r="F169" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -5349,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="170">
@@ -5357,19 +5357,19 @@
         <v>1474</v>
       </c>
       <c r="B170" t="n">
-        <v>2637</v>
+        <v>2701</v>
       </c>
       <c r="C170" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F170" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="171">
@@ -5386,19 +5386,19 @@
         <v>1253</v>
       </c>
       <c r="B171" t="n">
-        <v>5328</v>
+        <v>6015</v>
       </c>
       <c r="C171" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F171" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="172">
@@ -5433,10 +5433,10 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="173">
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="174">
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="175">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="176">
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="177">
@@ -5560,19 +5560,19 @@
         <v>1737</v>
       </c>
       <c r="B177" t="n">
-        <v>2711</v>
+        <v>2719</v>
       </c>
       <c r="C177" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="178">
@@ -5607,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="179">
@@ -5618,28 +5618,28 @@
         <v>1449</v>
       </c>
       <c r="B179" t="n">
-        <v>2337</v>
+        <v>2314</v>
       </c>
       <c r="C179" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>0.31</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="180">
@@ -5647,19 +5647,19 @@
         <v>1169</v>
       </c>
       <c r="B180" t="n">
-        <v>4637</v>
+        <v>4748</v>
       </c>
       <c r="C180" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D180" t="n">
         <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F180" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="n">
-        <v>0.76</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="181">
@@ -5676,10 +5676,10 @@
         <v>1521</v>
       </c>
       <c r="B181" t="n">
-        <v>4069</v>
+        <v>4282</v>
       </c>
       <c r="C181" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D181" t="n">
         <v>2</v>
@@ -5688,7 +5688,7 @@
         <v>7</v>
       </c>
       <c r="F181" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="182">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="183">
@@ -5734,28 +5734,28 @@
         <v>1448</v>
       </c>
       <c r="B183" t="n">
-        <v>2717</v>
+        <v>2622</v>
       </c>
       <c r="C183" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E183" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F183" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184">
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="185">
@@ -5813,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="n">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="186">
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="187">
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="189">
@@ -5929,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="n">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="190">
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="191">
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="192">
@@ -5995,16 +5995,16 @@
         <v>1691</v>
       </c>
       <c r="B192" t="n">
-        <v>2649</v>
+        <v>2604</v>
       </c>
       <c r="C192" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D192" t="n">
         <v>2</v>
       </c>
       <c r="E192" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
         <v>9</v>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="193">
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="194">
@@ -6053,19 +6053,19 @@
         <v>1736</v>
       </c>
       <c r="B194" t="n">
-        <v>2435</v>
+        <v>2389</v>
       </c>
       <c r="C194" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D194" t="n">
         <v>3</v>
       </c>
       <c r="E194" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F194" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="195">
@@ -6103,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="196">
@@ -6111,19 +6111,19 @@
         <v>1717</v>
       </c>
       <c r="B196" t="n">
-        <v>2095</v>
+        <v>2124</v>
       </c>
       <c r="C196" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F196" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="197">
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="198">
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="199">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="200">
@@ -6227,19 +6227,19 @@
         <v>1664</v>
       </c>
       <c r="B200" t="n">
-        <v>2439</v>
+        <v>2449</v>
       </c>
       <c r="C200" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F200" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="201">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="202">
@@ -6285,7 +6285,7 @@
         <v>1159</v>
       </c>
       <c r="B202" t="n">
-        <v>3651</v>
+        <v>3656</v>
       </c>
       <c r="C202" t="n">
         <v>37</v>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="n">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="203">
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="204">
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="205">
@@ -6401,10 +6401,10 @@
         <v>1476</v>
       </c>
       <c r="B206" t="n">
-        <v>3361</v>
+        <v>3352</v>
       </c>
       <c r="C206" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>9</v>
       </c>
       <c r="F206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -6422,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="207">
@@ -6430,16 +6430,16 @@
         <v>1428</v>
       </c>
       <c r="B207" t="n">
-        <v>2395</v>
+        <v>2408</v>
       </c>
       <c r="C207" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D207" t="n">
         <v>3</v>
       </c>
       <c r="E207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
         <v>14</v>
@@ -6451,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="208">
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="209">
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="210">
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="211">
@@ -6546,28 +6546,28 @@
         <v>1237</v>
       </c>
       <c r="B211" t="n">
-        <v>2713</v>
+        <v>2733</v>
       </c>
       <c r="C211" t="n">
         <v>27</v>
       </c>
       <c r="D211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F211" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="212">
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="213">
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="214">
@@ -6633,19 +6633,19 @@
         <v>1067</v>
       </c>
       <c r="B214" t="n">
-        <v>1543</v>
+        <v>1387</v>
       </c>
       <c r="C214" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -6654,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="215">
@@ -6691,19 +6691,19 @@
         <v>1320</v>
       </c>
       <c r="B216" t="n">
-        <v>4828</v>
+        <v>4804</v>
       </c>
       <c r="C216" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
         <v>12</v>
       </c>
       <c r="F216" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="217">
@@ -6720,19 +6720,19 @@
         <v>1280</v>
       </c>
       <c r="B217" t="n">
-        <v>10247</v>
+        <v>9977</v>
       </c>
       <c r="C217" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F217" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="218">
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="219">
@@ -6778,19 +6778,19 @@
         <v>1497</v>
       </c>
       <c r="B219" t="n">
-        <v>10017</v>
+        <v>9976</v>
       </c>
       <c r="C219" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E219" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F219" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="220">
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="221">
@@ -6836,10 +6836,10 @@
         <v>1673</v>
       </c>
       <c r="B221" t="n">
-        <v>4701</v>
+        <v>4733</v>
       </c>
       <c r="C221" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D221" t="n">
         <v>3</v>
@@ -6848,16 +6848,16 @@
         <v>6</v>
       </c>
       <c r="F221" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0.65</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="222">
@@ -6865,19 +6865,19 @@
         <v>1523</v>
       </c>
       <c r="B222" t="n">
-        <v>3362</v>
+        <v>3432</v>
       </c>
       <c r="C222" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E222" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F222" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -6886,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="I222" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="223">
@@ -6915,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="224">
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="225">
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="226">
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="n">
-        <v>0.55</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="227">
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="228">
@@ -7039,19 +7039,19 @@
         <v>1753</v>
       </c>
       <c r="B228" t="n">
-        <v>2473</v>
+        <v>2604</v>
       </c>
       <c r="C228" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E228" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F228" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="I228" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="229">
@@ -7089,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="n">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="230">
@@ -7097,19 +7097,19 @@
         <v>1151</v>
       </c>
       <c r="B230" t="n">
-        <v>4460</v>
+        <v>4540</v>
       </c>
       <c r="C230" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F230" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -7118,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="n">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="231">
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="232">
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="233">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="234">
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="235">
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="236">
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="237">
@@ -7321,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="238">
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="239">
@@ -7358,13 +7358,13 @@
         <v>1234</v>
       </c>
       <c r="B239" t="n">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="C239" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -7379,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="n">
-        <v>0.54</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="240">
@@ -7387,19 +7387,19 @@
         <v>1325</v>
       </c>
       <c r="B240" t="n">
-        <v>13273</v>
+        <v>13748</v>
       </c>
       <c r="C240" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240" t="n">
         <v>22</v>
       </c>
       <c r="F240" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -7408,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="n">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="241">
@@ -7434,10 +7434,10 @@
         <v>1</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
-        <v>0.25</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="242">
@@ -7463,10 +7463,10 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="243">
@@ -7474,19 +7474,19 @@
         <v>1100</v>
       </c>
       <c r="B243" t="n">
-        <v>7489</v>
+        <v>7603</v>
       </c>
       <c r="C243" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="I243" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="244">
@@ -7521,10 +7521,10 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="245">
@@ -7532,10 +7532,10 @@
         <v>1068</v>
       </c>
       <c r="B245" t="n">
-        <v>2647</v>
+        <v>2659</v>
       </c>
       <c r="C245" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D245" t="n">
         <v>3</v>
@@ -7544,7 +7544,7 @@
         <v>7</v>
       </c>
       <c r="F245" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="247">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="248">
@@ -7619,19 +7619,19 @@
         <v>1509</v>
       </c>
       <c r="B248" t="n">
-        <v>4673</v>
+        <v>4767</v>
       </c>
       <c r="C248" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E248" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F248" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -7640,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="249">
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="250">
@@ -7677,28 +7677,28 @@
         <v>1606</v>
       </c>
       <c r="B250" t="n">
-        <v>5161</v>
+        <v>4846</v>
       </c>
       <c r="C250" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F250" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
-        <v>0.39</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="251">
@@ -7724,10 +7724,10 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="252">
@@ -7735,16 +7735,16 @@
         <v>1343</v>
       </c>
       <c r="B252" t="n">
-        <v>2660</v>
+        <v>2784</v>
       </c>
       <c r="C252" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E252" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F252" t="n">
         <v>2</v>
@@ -7756,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="253">
@@ -7785,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="254">
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="255">
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="256">
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="257">
@@ -7901,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="258">
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="259">
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="260">
@@ -7988,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="261">
@@ -8025,10 +8025,10 @@
         <v>1700</v>
       </c>
       <c r="B262" t="n">
-        <v>3790</v>
+        <v>3904</v>
       </c>
       <c r="C262" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D262" t="n">
         <v>2</v>
@@ -8037,16 +8037,16 @@
         <v>6</v>
       </c>
       <c r="F262" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>0.86</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="263">
@@ -8054,19 +8054,19 @@
         <v>1303</v>
       </c>
       <c r="B263" t="n">
-        <v>2343</v>
+        <v>2358</v>
       </c>
       <c r="C263" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E263" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F263" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -8075,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="264">
@@ -8083,7 +8083,7 @@
         <v>1289</v>
       </c>
       <c r="B264" t="n">
-        <v>1941</v>
+        <v>1931</v>
       </c>
       <c r="C264" t="n">
         <v>21</v>
@@ -8095,7 +8095,7 @@
         <v>2</v>
       </c>
       <c r="F264" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="I264" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="265">
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="266">
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="267">
@@ -8170,19 +8170,19 @@
         <v>1161</v>
       </c>
       <c r="B267" t="n">
-        <v>3031</v>
+        <v>2854</v>
       </c>
       <c r="C267" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D267" t="n">
         <v>2</v>
       </c>
       <c r="E267" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="I267" t="n">
-        <v>0.57</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="268">
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="269">
@@ -8228,13 +8228,13 @@
         <v>1486</v>
       </c>
       <c r="B269" t="n">
-        <v>2338</v>
+        <v>2323</v>
       </c>
       <c r="C269" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E269" t="n">
         <v>1</v>
@@ -8246,10 +8246,10 @@
         <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
-        <v>0.5</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="270">
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="271">
@@ -8307,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="n">
-        <v>0.61</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="272">
@@ -8336,7 +8336,7 @@
         <v>1</v>
       </c>
       <c r="I272" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="273">
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="274">
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>0.29</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="275">
@@ -8402,16 +8402,16 @@
         <v>1189</v>
       </c>
       <c r="B275" t="n">
-        <v>2311</v>
+        <v>2328</v>
       </c>
       <c r="C275" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D275" t="n">
         <v>3</v>
       </c>
       <c r="E275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F275" t="n">
         <v>6</v>
@@ -8423,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="I275" t="n">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="276">
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="277">
@@ -8460,19 +8460,19 @@
         <v>1683</v>
       </c>
       <c r="B277" t="n">
-        <v>5571</v>
+        <v>5805</v>
       </c>
       <c r="C277" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E277" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F277" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="I277" t="n">
-        <v>0.58</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="278">
@@ -8510,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="I278" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="279">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="280">
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="281">
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="I281" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="282">
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="283">
@@ -8634,10 +8634,10 @@
         <v>1178</v>
       </c>
       <c r="B283" t="n">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="C283" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D283" t="n">
         <v>1</v>
@@ -8655,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="I283" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="284">
@@ -8684,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="285">
@@ -8692,19 +8692,19 @@
         <v>1236</v>
       </c>
       <c r="B285" t="n">
-        <v>2350</v>
+        <v>2368</v>
       </c>
       <c r="C285" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E285" t="n">
         <v>6</v>
       </c>
       <c r="F285" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -8713,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="I285" t="n">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="286">
@@ -8739,10 +8739,10 @@
         <v>1</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>0.9</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="287">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="288">
@@ -8797,10 +8797,10 @@
         <v>1</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="289">
@@ -8808,19 +8808,19 @@
         <v>1639</v>
       </c>
       <c r="B289" t="n">
-        <v>4027</v>
+        <v>4366</v>
       </c>
       <c r="C289" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D289" t="n">
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F289" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
       <c r="I289" t="n">
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="290">
@@ -8837,7 +8837,7 @@
         <v>1734</v>
       </c>
       <c r="B290" t="n">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="C290" t="n">
         <v>26</v>
@@ -8846,10 +8846,10 @@
         <v>3</v>
       </c>
       <c r="E290" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F290" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -8858,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="n">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="291">
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="292">
@@ -8895,28 +8895,28 @@
         <v>1506</v>
       </c>
       <c r="B292" t="n">
-        <v>2889</v>
+        <v>2957</v>
       </c>
       <c r="C292" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D292" t="n">
         <v>3</v>
       </c>
       <c r="E292" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F292" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="293">
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="I293" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="294">
@@ -8971,10 +8971,10 @@
         <v>1</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="295">
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="296">
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="I296" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="297">
@@ -9061,7 +9061,7 @@
         <v>1</v>
       </c>
       <c r="I297" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="298">
@@ -9072,13 +9072,13 @@
         <v>2475</v>
       </c>
       <c r="C298" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D298" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E298" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F298" t="n">
         <v>2</v>
@@ -9087,10 +9087,10 @@
         <v>1</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="299">
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="300">
@@ -9127,19 +9127,19 @@
         <v>1714</v>
       </c>
       <c r="B300" t="n">
-        <v>5055</v>
+        <v>4964</v>
       </c>
       <c r="C300" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
       </c>
       <c r="F300" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -9148,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="I300" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="301">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="302">
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="303">
@@ -9214,20 +9214,20 @@
         <v>1301</v>
       </c>
       <c r="B303" t="n">
-        <v>3227</v>
+        <v>3175</v>
       </c>
       <c r="C303" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D303" t="n">
         <v>2</v>
       </c>
       <c r="E303" t="n">
+        <v>14</v>
+      </c>
+      <c r="F303" t="n">
         <v>15</v>
       </c>
-      <c r="F303" t="n">
-        <v>16</v>
-      </c>
       <c r="G303" t="n">
         <v>1</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="I303" t="n">
-        <v>0.66</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="304">
@@ -9243,19 +9243,19 @@
         <v>1273</v>
       </c>
       <c r="B304" t="n">
-        <v>3124</v>
+        <v>3137</v>
       </c>
       <c r="C304" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E304" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F304" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -9264,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="I304" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="305">
@@ -9293,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="I305" t="n">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="306">
@@ -9322,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307">
@@ -9330,19 +9330,19 @@
         <v>1328</v>
       </c>
       <c r="B307" t="n">
-        <v>2881</v>
+        <v>2793</v>
       </c>
       <c r="C307" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E307" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F307" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -9351,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="I307" t="n">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="308">
@@ -9359,28 +9359,28 @@
         <v>1435</v>
       </c>
       <c r="B308" t="n">
-        <v>10097</v>
+        <v>10437</v>
       </c>
       <c r="C308" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E308" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F308" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="309">
@@ -9388,13 +9388,13 @@
         <v>1432</v>
       </c>
       <c r="B309" t="n">
-        <v>4560</v>
+        <v>4559</v>
       </c>
       <c r="C309" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -9409,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="I309" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="310">
@@ -9438,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="I310" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="311">
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="312">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="I312" t="n">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="313">
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="314">
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="315">
@@ -9562,16 +9562,16 @@
         <v>1749</v>
       </c>
       <c r="B315" t="n">
-        <v>9194</v>
+        <v>9281</v>
       </c>
       <c r="C315" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D315" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E315" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F315" t="n">
         <v>16</v>
@@ -9580,10 +9580,10 @@
         <v>1</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>0.82</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="316">
@@ -9591,19 +9591,19 @@
         <v>1084</v>
       </c>
       <c r="B316" t="n">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="C316" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E316" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F316" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -9612,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="I316" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="317">
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="318">
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="319">
@@ -9678,28 +9678,28 @@
         <v>1220</v>
       </c>
       <c r="B319" t="n">
-        <v>5799</v>
+        <v>5848</v>
       </c>
       <c r="C319" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E319" t="n">
         <v>7</v>
       </c>
       <c r="F319" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="320">
@@ -9728,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="I320" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="321">
@@ -9757,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="I321" t="n">
-        <v>0.63</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="322">
@@ -9765,19 +9765,19 @@
         <v>1645</v>
       </c>
       <c r="B322" t="n">
-        <v>2691</v>
+        <v>2971</v>
       </c>
       <c r="C322" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D322" t="n">
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F322" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -9786,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="I322" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="323">
@@ -9794,19 +9794,19 @@
         <v>1214</v>
       </c>
       <c r="B323" t="n">
-        <v>9516</v>
+        <v>8794</v>
       </c>
       <c r="C323" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E323" t="n">
         <v>9</v>
       </c>
       <c r="F323" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="I323" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="324">
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>0.49</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="325">
@@ -9873,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="I325" t="n">
-        <v>0.74</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="326">
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="I326" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="327">
@@ -9931,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="328">
@@ -9939,19 +9939,19 @@
         <v>1197</v>
       </c>
       <c r="B328" t="n">
-        <v>4557</v>
+        <v>4269</v>
       </c>
       <c r="C328" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E328" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F328" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -9960,7 +9960,7 @@
         <v>1</v>
       </c>
       <c r="I328" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="329">
@@ -9989,7 +9989,7 @@
         <v>1</v>
       </c>
       <c r="I329" t="n">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="330">
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="331">
@@ -10047,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="I331" t="n">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="332">
@@ -10055,19 +10055,19 @@
         <v>1387</v>
       </c>
       <c r="B332" t="n">
-        <v>2942</v>
+        <v>3136</v>
       </c>
       <c r="C332" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E332" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F332" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -10076,7 +10076,7 @@
         <v>1</v>
       </c>
       <c r="I332" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="333">
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="n">
-        <v>0.49</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="334">
@@ -10134,7 +10134,7 @@
         <v>1</v>
       </c>
       <c r="I334" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="335">
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="I335" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="336">
@@ -10192,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="337">
@@ -10279,7 +10279,7 @@
         <v>1</v>
       </c>
       <c r="I339" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="340">
@@ -10308,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="I340" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="341">
@@ -10337,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="I341" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="342">
@@ -10395,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="344">
@@ -10424,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="I344" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="345">
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="346">
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="347">
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="348">
@@ -10537,10 +10537,10 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="349">
@@ -10569,7 +10569,7 @@
         <v>1</v>
       </c>
       <c r="I349" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="350">
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="351">
@@ -10624,10 +10624,10 @@
         <v>1</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="352">
@@ -10635,19 +10635,19 @@
         <v>1652</v>
       </c>
       <c r="B352" t="n">
-        <v>2056</v>
+        <v>2098</v>
       </c>
       <c r="C352" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D352" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E352" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F352" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -10656,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="I352" t="n">
-        <v>0.96</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="353">
